--- a/user_list.xlsx
+++ b/user_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilpoa\epimetheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA6F1E3-1015-4DC3-8584-224CCEF49AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D99FFF1B-162C-4EBA-8346-5E93A6B11724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4870" yWindow="685" windowWidth="14015" windowHeight="9535" xr2:uid="{6815FB2D-6508-44BB-AD11-CB8DDCAD01F2}"/>
+    <workbookView xWindow="1925" yWindow="2630" windowWidth="14015" windowHeight="9535" xr2:uid="{6815FB2D-6508-44BB-AD11-CB8DDCAD01F2}"/>
   </bookViews>
   <sheets>
     <sheet name="user_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -44,9 +44,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>kauttaja1</t>
-  </si>
-  <si>
     <t>kauttaja2</t>
   </si>
   <si>
@@ -63,16 +60,30 @@
   </si>
   <si>
     <t>used</t>
+  </si>
+  <si>
+    <t>toyay48296@glumark.com</t>
+  </si>
+  <si>
+    <t>7m=3Swd2dgUqxTM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,13 +106,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,7 +431,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -434,15 +448,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -450,10 +464,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -461,10 +475,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -472,10 +486,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -483,16 +497,19 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1D4A144F-C803-44DD-856A-4D467C7A0BAF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>